--- a/Master Spreadsheet.xlsx
+++ b/Master Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\School\Fall 2020\IFT 402\ASEULA\ASEULA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D41DF7-095A-4A2A-92E9-8751E1F1DF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBA52F7-D876-4E0B-8168-32A290B360A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{C3E34DE6-4361-424D-84E5-1C6227D1DF66}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Restriction Sentences" sheetId="3" r:id="rId3"/>
     <sheet name="Task Overview" sheetId="6" r:id="rId4"/>
     <sheet name="Task Timeline" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="query__1" localSheetId="0" hidden="1">'20200721 Complete Listing'!$A$1:$AR$819</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16226" uniqueCount="2853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16300" uniqueCount="2899">
   <si>
     <t>sites/Fulton/ETS/sysmgmt/software/Lists/Software</t>
   </si>
@@ -8781,18 +8782,9 @@
     <t>Comtributor(s)</t>
   </si>
   <si>
-    <t>Installed spaCy and tested functions that identify entity text and labels to understand how spaCy performs natural language processing to identify parts of speech.</t>
-  </si>
-  <si>
     <t>Michaela Pawlowski</t>
   </si>
   <si>
-    <t>Installed docx2txt and PyPDF2 packages to experiment with file formats.</t>
-  </si>
-  <si>
-    <t>Added conditionals that check input file format and perform appropriate conversions. This works for .txt, .docx, and .pdf. Image-based PDF files are not supported at this time.</t>
-  </si>
-  <si>
     <t>Meeting with Shaun and Kyle</t>
   </si>
   <si>
@@ -8802,12 +8794,6 @@
     <t xml:space="preserve">Researched spaCy API and added a sentencizer method to break paragraphs into sentences for more accurate data processing. </t>
   </si>
   <si>
-    <t>Added conditional that returns an error message if unsupported file type is used as input.</t>
-  </si>
-  <si>
-    <t>Added code to identify information webpage for input EULA.</t>
-  </si>
-  <si>
     <t>Ricardo Garcia, Michaela Pawlowski</t>
   </si>
   <si>
@@ -8902,6 +8888,159 @@
   </si>
   <si>
     <t>Project Meetings w/ Employer</t>
+  </si>
+  <si>
+    <t>Added catch that returns an error message if unsupported file type is used as input.</t>
+  </si>
+  <si>
+    <t>Refined information webpage regex to produce more accurate results. Fixed issue where some URLs were incomplete.</t>
+  </si>
+  <si>
+    <t>Experimented with regular expressions to identify information webpage patterns for input file. Stored all values in an array for AI decision.</t>
+  </si>
+  <si>
+    <t>Modified information webpage search to use spaCy's "like URL" attribute.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Script Configuration - Python</t>
+  </si>
+  <si>
+    <t>Preparation - AI Builder</t>
+  </si>
+  <si>
+    <t>Preparation - Python</t>
+  </si>
+  <si>
+    <t>Execution - Python</t>
+  </si>
+  <si>
+    <t>Functionality - Python</t>
+  </si>
+  <si>
+    <t>Database Connectivity - Python</t>
+  </si>
+  <si>
+    <t>Installed spaCy package to explore methods for data manipulation. Used a plaintext sample paragraph for testing.</t>
+  </si>
+  <si>
+    <t>Developed basic function that identifies entity text and labels to understand how spaCy NLP identifies parts of speech for sample text.</t>
+  </si>
+  <si>
+    <t>Installed docx2txt package to test spaCy's compatibility with Microsoft Word documents.</t>
+  </si>
+  <si>
+    <t>Installed PyPDF2 package to test spaCy's compatibility with PDF documents.</t>
+  </si>
+  <si>
+    <t>Researched spaCy and NLTK API to determine viability of AI incorporation.</t>
+  </si>
+  <si>
+    <t>Developed conditionals that check input file format and perform appropriate conversions. This works for .txt, .docx, and .pdf; however, output is crude. Image-based PDF files are not supported at this time.</t>
+  </si>
+  <si>
+    <t>Activated and researched AI Builder/PowerAutomate ecosystem capabilities.</t>
+  </si>
+  <si>
+    <t>Researched and created flow to extract text from PDF documents.</t>
+  </si>
+  <si>
+    <t>Analyzed flow output and formatted extracted text.</t>
+  </si>
+  <si>
+    <t>Performed sentence separation for extracted text.</t>
+  </si>
+  <si>
+    <t>Conducted entity extraction on formatted text.</t>
+  </si>
+  <si>
+    <t>Performed key phrase extraction on extracted text.</t>
+  </si>
+  <si>
+    <t>Configured file output for temporary/permanent storage of extracted text.</t>
+  </si>
+  <si>
+    <t>Reviewed and re-ran failed flows.</t>
+  </si>
+  <si>
+    <t>Analyzed results of flow reviews to determine feasability of AI Builder for capstone project.</t>
+  </si>
+  <si>
+    <t>Added catch statement to re-prompt user if unsupported file type is input.</t>
+  </si>
+  <si>
+    <t>Developed loop to iterate through each entity in input document; prints each entity's text and label.</t>
+  </si>
+  <si>
+    <t>Fixed an issue where ORG entities contained random new line characters due to dirty input data.</t>
+  </si>
+  <si>
+    <t>Developed loop to tokenize software name string.</t>
+  </si>
+  <si>
+    <t>Developed conditional statement to check if ORG array is empty. If not, the ORG entity that occurred most within the document was identified as the publisher name.</t>
+  </si>
+  <si>
+    <t>Developed conditional statement to search for tokens matching proper noun part of speech. Appended tokens to an array.</t>
+  </si>
+  <si>
+    <t>Removed duplicates from the token array.</t>
+  </si>
+  <si>
+    <t>Created a matching variable to compare software name to previously identified publisher name to aid in decision making.</t>
+  </si>
+  <si>
+    <t>Developed array of patterns to identify text commonly associated with publisher names.</t>
+  </si>
+  <si>
+    <t>Developed conditional statement to append only entities with spaCy's ORG identifier that match patterns array to a new array, later attributed to publisher name.</t>
+  </si>
+  <si>
+    <t>Developed conditional statement to append only entities with spaCy's PERSON identifier to an array, later attributed to software name.</t>
+  </si>
+  <si>
+    <t>Developed conditional to compare token array to matching variable. If no match, array mode determines software name. If no mode found, software name is flagged as unknown.</t>
+  </si>
+  <si>
+    <t>Developed several arrays to hold patterns for ETS license restrictions.</t>
+  </si>
+  <si>
+    <t>Acquired larger sample size of license agreements for further testing.</t>
+  </si>
+  <si>
+    <t>Tested and refined software name and publisher name functions for accuracy.</t>
+  </si>
+  <si>
+    <t>Read through a series of license agreements to develop awareness for common licensing restriction terms.</t>
+  </si>
+  <si>
+    <t>Began populating instructional-use only and research-use only arrays.</t>
+  </si>
+  <si>
+    <t>Developed a loop to search for matching license restriction terms sentence by sentence.</t>
+  </si>
+  <si>
+    <t>Developed a sentencizer method to break paragraphs into sentences for more accurate data processing. Entities such as decimal numbers, URLs, and numbered lists seem to have varying results.</t>
+  </si>
+  <si>
+    <t>Developed arrays to save flagged restrictions and trigger sentences.</t>
+  </si>
+  <si>
+    <t>Refined flagged restrictions by developing positive and negative trigger word arrays.</t>
+  </si>
+  <si>
+    <t>Experimented with regular expressions to identify information webpage patterns for input file. Stored all values in an array for decision.</t>
+  </si>
+  <si>
+    <t>Modified information webpage search to use spaCy's "like URL" attribute. Produced more accurate results.</t>
+  </si>
+  <si>
+    <t>Fixed issue with Tesseract dependency MagickWand.</t>
+  </si>
+  <si>
+    <t>Finalized switch from PyPDF2 to PyTesseract. PyTesseract now works with normal and image-based PDFs.</t>
   </si>
 </sst>
 </file>
@@ -8983,7 +9122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8992,7 +9131,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9179,7 +9330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9348,6 +9499,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9372,7 +9528,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -90779,64 +90934,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>2796</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="H1" s="70" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="H1" s="75" t="s">
         <v>2668</v>
       </c>
-      <c r="I1" s="71"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>2653</v>
       </c>
       <c r="B2" s="45" t="str">
         <f>COUNTIF(B3:B148,"Yes") &amp; " of " &amp; COUNTA(B3:B148) &amp; " files"</f>
         <v>12 of 24 files</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="74" t="s">
         <v>2772</v>
       </c>
       <c r="D2" s="45" t="str">
         <f>COUNTIF(D3:D148,"Yes") &amp; " of " &amp; COUNTA(D3:D148) &amp; " files"</f>
         <v>12 of 24 files</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2795</v>
       </c>
       <c r="F2" s="45" t="str">
         <f>COUNTIF(F3:F148,"Yes") &amp; " of " &amp; COUNTA(F3:F148) &amp; " files"</f>
         <v>13 of 24 files</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="46" t="str">
         <f>INT(COUNTIF(B4:B148,"Yes")/COUNTA(B4:B148)*100) &amp; "% Detected"</f>
         <v>52% Detected</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="46" t="str">
         <f>INT(COUNTIF(D4:D148,"Yes")/COUNTA(D4:D148)*100) &amp; "% Detected"</f>
         <v>52% Detected</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="46" t="str">
         <f>INT(COUNTIF(F4:F148,"Yes")/COUNTA(F4:F148)*100) &amp; "% Detected"</f>
         <v>56% Detected</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -93717,47 +93872,47 @@
         <v>2807</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>2837</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>2836</v>
+        <v>2831</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>2833</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>2841</v>
+        <v>2836</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>2843</v>
+        <v>2838</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>2844</v>
+        <v>2839</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>2840</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -93765,58 +93920,58 @@
         <v>2808</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>2845</v>
+        <v>2840</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>2839</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
-        <v>2846</v>
+        <v>2841</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>2847</v>
+        <v>2842</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>2848</v>
+        <v>2843</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>2849</v>
+        <v>2844</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>2840</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>2850</v>
+        <v>2845</v>
       </c>
       <c r="B13" s="66"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>2851</v>
+        <v>2846</v>
       </c>
       <c r="B14" s="66"/>
     </row>
@@ -93828,10 +93983,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>2852</v>
+        <v>2847</v>
       </c>
       <c r="B16" t="s">
-        <v>2838</v>
+        <v>2833</v>
       </c>
     </row>
   </sheetData>
@@ -93841,10 +93996,418 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAEA874-8B24-402C-A6B9-BA1C05EAE6E9}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="187.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43966</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43969</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43973</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B6" s="72">
+        <v>43973</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43974</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43976</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43978</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B10" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B11" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B12" s="4">
+        <v>43990</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B14" s="4">
+        <v>43966</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43967</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B20" s="4">
+        <v>43968</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B22" s="72">
+        <v>43973</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="70" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="70" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964634CB-2B28-43BB-BB16-8DD7359DF1B2}">
+  <dimension ref="A4:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -93854,234 +94417,209 @@
     <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B2" s="4">
-        <v>43966</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>2813</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B3" s="4">
-        <v>43967</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="4">
+        <v>43973</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2815</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43968</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
-        <v>2816</v>
       </c>
       <c r="B5" s="4">
         <v>43973</v>
       </c>
       <c r="C5" t="s">
-        <v>2838</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2818</v>
+        <v>2848</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43973</v>
       </c>
       <c r="C6" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B7" s="4">
-        <v>43973</v>
+        <v>2850</v>
       </c>
       <c r="C7" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2820</v>
+        <v>2849</v>
       </c>
       <c r="C8" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2822</v>
+        <v>2851</v>
       </c>
       <c r="C9" t="s">
-        <v>2821</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2823</v>
+        <v>2817</v>
       </c>
       <c r="C10" t="s">
-        <v>2821</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2824</v>
+        <v>2818</v>
       </c>
       <c r="C11" t="s">
-        <v>2821</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="C12" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="C13" t="s">
-        <v>2821</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="C14" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2828</v>
+        <v>2822</v>
       </c>
       <c r="C15" t="s">
-        <v>2821</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2829</v>
+        <v>2823</v>
       </c>
       <c r="C16" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2830</v>
+        <v>2824</v>
       </c>
       <c r="C17" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2831</v>
+        <v>2825</v>
       </c>
       <c r="C18" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2832</v>
+        <v>2826</v>
       </c>
       <c r="C19" t="s">
-        <v>2833</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2834</v>
+        <v>2827</v>
       </c>
       <c r="C20" t="s">
-        <v>2833</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2835</v>
+        <v>2829</v>
       </c>
       <c r="C21" t="s">
-        <v>2821</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C22" t="s">
         <v>2816</v>
       </c>
-      <c r="B22" s="4">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B23" s="4">
         <v>43991</v>
       </c>
-      <c r="C22" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="C23" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B24" s="4">
         <v>44019</v>
       </c>
-      <c r="C23" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="C24" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B25" s="4">
         <v>44032</v>
       </c>
-      <c r="C24" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="C25" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B26" s="4">
         <v>44042</v>
       </c>
-      <c r="C25" t="s">
-        <v>2838</v>
+      <c r="C26" t="s">
+        <v>2833</v>
       </c>
     </row>
   </sheetData>

--- a/Master Spreadsheet.xlsx
+++ b/Master Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\School\Fall 2020\IFT 402\ASEULA\ASEULA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBA52F7-D876-4E0B-8168-32A290B360A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BF15DA-C2A8-43FA-B026-4CC17752F5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{C3E34DE6-4361-424D-84E5-1C6227D1DF66}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Restriction Sentences" sheetId="3" r:id="rId3"/>
     <sheet name="Task Overview" sheetId="6" r:id="rId4"/>
     <sheet name="Task Timeline" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="query__1" localSheetId="0" hidden="1">'20200721 Complete Listing'!$A$1:$AR$819</definedName>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16300" uniqueCount="2899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16285" uniqueCount="2904">
   <si>
     <t>sites/Fulton/ETS/sysmgmt/software/Lists/Software</t>
   </si>
@@ -8791,54 +8790,18 @@
     <t>Matthew Buchan, Ricardo Garcia, Michaela Pawlowski</t>
   </si>
   <si>
-    <t xml:space="preserve">Researched spaCy API and added a sentencizer method to break paragraphs into sentences for more accurate data processing. </t>
-  </si>
-  <si>
     <t>Ricardo Garcia, Michaela Pawlowski</t>
   </si>
   <si>
-    <t>Added code to identify software name for input EULA.</t>
-  </si>
-  <si>
-    <t>Added code to identify publisher name for input EULA.</t>
-  </si>
-  <si>
-    <t>Modified software name, publisher name, and information webpage search to use arrays for data manipulation.</t>
-  </si>
-  <si>
-    <t>Experimented with statistics functions to determine best choice scenarios for more accurate search results.</t>
-  </si>
-  <si>
-    <t>Modified regular expressions to perform more accurate URL searches.</t>
-  </si>
-  <si>
-    <t>Modified publisher patterns to perform more accurate publisher searches. Fixed an issue where some URLs were spanning multiple lines.</t>
-  </si>
-  <si>
-    <t>Fixed an issue where publisher name functions were returning empty arrays. Modified conditionals to save all returned values to a variable. Removed all print statements from conditionals.</t>
-  </si>
-  <si>
-    <t>Established variables to hold licensing restriction patterns. Began developing methods to filter files based on specified licensing restriction patterns (instructional-use only and research-use only).</t>
-  </si>
-  <si>
     <t>Expanded search patterns for instructional-use only and research-use only licensing restrictions. Continued testing across multiple example files.</t>
   </si>
   <si>
-    <t>Added try/catch to fix error where image based PDFs were not reading in properly.</t>
-  </si>
-  <si>
     <t>Attempted switch from PyPDF2 to PyTesseract to aid in OCR conversion of image-based PDFs.</t>
   </si>
   <si>
     <t>Matthew Buchan</t>
   </si>
   <si>
-    <t>Fixed issue with Tesseract dependency, MagickWand.</t>
-  </si>
-  <si>
-    <t>Added loop for user to verify if returned data is correct.</t>
-  </si>
-  <si>
     <t>AI Builder - Build Flow/Analyze Performance</t>
   </si>
   <si>
@@ -8890,18 +8853,9 @@
     <t>Project Meetings w/ Employer</t>
   </si>
   <si>
-    <t>Added catch that returns an error message if unsupported file type is used as input.</t>
-  </si>
-  <si>
     <t>Refined information webpage regex to produce more accurate results. Fixed issue where some URLs were incomplete.</t>
   </si>
   <si>
-    <t>Experimented with regular expressions to identify information webpage patterns for input file. Stored all values in an array for AI decision.</t>
-  </si>
-  <si>
-    <t>Modified information webpage search to use spaCy's "like URL" attribute.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -8983,12 +8937,6 @@
     <t>Developed conditional statement to check if ORG array is empty. If not, the ORG entity that occurred most within the document was identified as the publisher name.</t>
   </si>
   <si>
-    <t>Developed conditional statement to search for tokens matching proper noun part of speech. Appended tokens to an array.</t>
-  </si>
-  <si>
-    <t>Removed duplicates from the token array.</t>
-  </si>
-  <si>
     <t>Created a matching variable to compare software name to previously identified publisher name to aid in decision making.</t>
   </si>
   <si>
@@ -9041,6 +8989,72 @@
   </si>
   <si>
     <t>Finalized switch from PyPDF2 to PyTesseract. PyTesseract now works with normal and image-based PDFs.</t>
+  </si>
+  <si>
+    <t>Created the selected dictionary for the purpose of storing pre-selected results from the NLP. Created a generalized location.</t>
+  </si>
+  <si>
+    <t>Created the field dictionary for the purpose of storing pre-selected arrays of stored values from the NLP. Created a generalized location.</t>
+  </si>
+  <si>
+    <t>Created the sentence dictionary to store the flagged sentences for all restrictions to be called by other functions.</t>
+  </si>
+  <si>
+    <t>Developed a function to format array values in an organized manner.</t>
+  </si>
+  <si>
+    <t>Tested usability for regular expressions in restriction searches.</t>
+  </si>
+  <si>
+    <t>Tested usability for rule based matching for restriction searches.</t>
+  </si>
+  <si>
+    <t>Created function to find similar terms for restrictions.</t>
+  </si>
+  <si>
+    <t>Split script jobs into separate functions.</t>
+  </si>
+  <si>
+    <t>Added progress bar to track image conversion.</t>
+  </si>
+  <si>
+    <t>Timer added to track variance in job duration.</t>
+  </si>
+  <si>
+    <t>Consolidated all data into a single job array consisting of filename, oOutput results, flagged restrictions, flagged sentences, and the full job text.</t>
+  </si>
+  <si>
+    <t>Defined variables for runtime environment.</t>
+  </si>
+  <si>
+    <t>Configured script to accept arguments. All file arguments are passed to the file array.</t>
+  </si>
+  <si>
+    <t>Configured script to prompt for filepath/directory if no input is provided.</t>
+  </si>
+  <si>
+    <t>Enabled directory listing and batch processing for both Windows and Linux.</t>
+  </si>
+  <si>
+    <t>Created loop to iterate through files in array for processing, extract/store the text, then pass the information to the ASEULA main function.</t>
+  </si>
+  <si>
+    <t>Set current system variable for OS checks.</t>
+  </si>
+  <si>
+    <t>Configured Tesseract file path based upon OS variable.</t>
+  </si>
+  <si>
+    <t>Script tested and verified to work with Ubuntu Linux distro.</t>
+  </si>
+  <si>
+    <t>Developed a function for user validation of the predetermined values for all fields to allow them to make changes or new additions. Depends on the many fields in the job array for each file to be able to call on its saved data.</t>
+  </si>
+  <si>
+    <t>Developed a function to call sentences for all restrictions if the array for that restriction is not empty. Uses the field dictionary to print the found information and change results during the validation stage.</t>
+  </si>
+  <si>
+    <t>Developed conditional statement to search for tokens matching proper noun part of speech. Appended tokens to an array. Removed duplicates from the token array.</t>
   </si>
 </sst>
 </file>
@@ -9122,18 +9136,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -9330,7 +9338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9499,11 +9507,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9527,6 +9534,17 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -90934,64 +90952,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>2796</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="H1" s="75" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="H1" s="74" t="s">
         <v>2668</v>
       </c>
-      <c r="I1" s="76"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>2653</v>
       </c>
       <c r="B2" s="45" t="str">
         <f>COUNTIF(B3:B148,"Yes") &amp; " of " &amp; COUNTA(B3:B148) &amp; " files"</f>
         <v>12 of 24 files</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>2772</v>
       </c>
       <c r="D2" s="45" t="str">
         <f>COUNTIF(D3:D148,"Yes") &amp; " of " &amp; COUNTA(D3:D148) &amp; " files"</f>
         <v>12 of 24 files</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="73" t="s">
         <v>2795</v>
       </c>
       <c r="F2" s="45" t="str">
         <f>COUNTIF(F3:F148,"Yes") &amp; " of " &amp; COUNTA(F3:F148) &amp; " files"</f>
         <v>13 of 24 files</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="46" t="str">
         <f>INT(COUNTIF(B4:B148,"Yes")/COUNTA(B4:B148)*100) &amp; "% Detected"</f>
         <v>52% Detected</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="46" t="str">
         <f>INT(COUNTIF(D4:D148,"Yes")/COUNTA(D4:D148)*100) &amp; "% Detected"</f>
         <v>52% Detected</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="46" t="str">
         <f>INT(COUNTIF(F4:F148,"Yes")/COUNTA(F4:F148)*100) &amp; "% Detected"</f>
         <v>56% Detected</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -93858,7 +93876,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -93872,20 +93890,20 @@
         <v>2807</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>2832</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>2831</v>
+        <v>2819</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>2836</v>
+        <v>2824</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>2814</v>
@@ -93893,15 +93911,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>2837</v>
+        <v>2825</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>2838</v>
+        <v>2826</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>2814</v>
@@ -93909,10 +93927,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>2839</v>
+        <v>2827</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>2835</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -93925,15 +93943,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>2840</v>
+        <v>2828</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>2834</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
-        <v>2841</v>
+        <v>2829</v>
       </c>
       <c r="B9" s="66" t="s">
         <v>2814</v>
@@ -93941,52 +93959,58 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>2842</v>
+        <v>2830</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>2843</v>
+        <v>2831</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>2844</v>
+        <v>2832</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>2835</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B13" s="66"/>
+        <v>2833</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>2814</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B14" s="66"/>
+        <v>2834</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>2814</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>2809</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="83" t="s">
+        <v>2814</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>2847</v>
+        <v>2835</v>
       </c>
       <c r="B16" t="s">
-        <v>2833</v>
+        <v>2821</v>
       </c>
     </row>
   </sheetData>
@@ -93996,10 +94020,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAEA874-8B24-402C-A6B9-BA1C05EAE6E9}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -94010,151 +94034,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>2807</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>2810</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>2811</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>2854</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>2852</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>2852</v>
+      <c r="A2" s="69" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>2837</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2865</v>
+        <v>2850</v>
       </c>
       <c r="B3" s="4">
         <v>43966</v>
       </c>
       <c r="C3" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2866</v>
+        <v>2851</v>
       </c>
       <c r="B4" s="4">
         <v>43969</v>
       </c>
       <c r="C4" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2867</v>
+        <v>2852</v>
       </c>
       <c r="B5" s="4">
         <v>43973</v>
       </c>
       <c r="C5" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>2813</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="71">
         <v>43973</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>2833</v>
+      <c r="C6" s="70" t="s">
+        <v>2821</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2868</v>
+        <v>2853</v>
       </c>
       <c r="B7" s="4">
         <v>43974</v>
       </c>
       <c r="C7" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2869</v>
+        <v>2854</v>
       </c>
       <c r="B8" s="4">
         <v>43976</v>
       </c>
       <c r="C8" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2870</v>
+        <v>2855</v>
       </c>
       <c r="B9" s="4">
         <v>43978</v>
       </c>
       <c r="C9" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2871</v>
+        <v>2856</v>
       </c>
       <c r="B10" s="4">
         <v>43983</v>
       </c>
       <c r="C10" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2872</v>
+        <v>2857</v>
       </c>
       <c r="B11" s="4">
         <v>43984</v>
       </c>
       <c r="C11" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2873</v>
+        <v>2858</v>
       </c>
       <c r="B12" s="4">
         <v>43990</v>
       </c>
       <c r="C12" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
-        <v>2855</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>2852</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>2852</v>
+      <c r="A13" s="69" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>2837</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2863</v>
+        <v>2848</v>
       </c>
       <c r="B14" s="4">
         <v>43966</v>
@@ -94165,7 +94189,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2859</v>
+        <v>2844</v>
+      </c>
+      <c r="B15" s="4">
+        <v>43967</v>
       </c>
       <c r="C15" t="s">
         <v>2812</v>
@@ -94173,456 +94200,383 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2860</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>2845</v>
+      </c>
+      <c r="B16" s="4">
+        <v>43968</v>
+      </c>
       <c r="C16" t="s">
         <v>2812</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>2875</v>
+      </c>
+      <c r="B17" s="82">
+        <v>43968</v>
+      </c>
       <c r="C17" t="s">
         <v>2812</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2861</v>
-      </c>
-      <c r="B18" s="4">
-        <v>43967</v>
+        <v>2846</v>
+      </c>
+      <c r="B18" s="82">
+        <v>43969</v>
       </c>
       <c r="C18" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2862</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>2847</v>
+      </c>
+      <c r="B19" s="82">
+        <v>43970</v>
+      </c>
       <c r="C19" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B20" s="4">
-        <v>43968</v>
+        <v>2849</v>
+      </c>
+      <c r="B20" s="82">
+        <v>43971</v>
       </c>
       <c r="C20" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>2859</v>
+      </c>
+      <c r="B21" s="82">
+        <v>43971</v>
+      </c>
       <c r="C21" t="s">
         <v>2812</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="70" t="s">
         <v>2813</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="71">
         <v>43973</v>
       </c>
-      <c r="C22" s="71" t="s">
-        <v>2833</v>
+      <c r="C22" s="70" t="s">
+        <v>2821</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>2852</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>2852</v>
+      <c r="A23" s="69" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>2837</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2875</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2882</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2883</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2878</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2876</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2884</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2877</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2879</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2880</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2881</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2885</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2895</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2849</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2896</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2886</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2888</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2887</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2889</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2890</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2891</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2893</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2894</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2825</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2827</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="81" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="81" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="81" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="81" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="81" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="81" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="81" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="81" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="81" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="81" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="86" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="81" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="81" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="81" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="81" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="81" t="s">
         <v>2897</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="86" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="81" t="s">
         <v>2898</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70" t="s">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70" t="s">
-        <v>2858</v>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="81" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="81" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="86" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="84" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B78" s="85">
+        <v>43991</v>
+      </c>
+      <c r="C78" s="84" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="84" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B79" s="85">
+        <v>44019</v>
+      </c>
+      <c r="C79" s="84" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="84" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B80" s="85">
+        <v>44032</v>
+      </c>
+      <c r="C80" s="84" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="84" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B81" s="85">
+        <v>44042</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>2821</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964634CB-2B28-43BB-BB16-8DD7359DF1B2}">
-  <dimension ref="A4:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="178.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43973</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B5" s="4">
-        <v>43973</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43973</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2850</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2849</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2851</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2817</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2818</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2819</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2820</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2821</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2822</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2824</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2825</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2827</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B23" s="4">
-        <v>43991</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B24" s="4">
-        <v>44019</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B25" s="4">
-        <v>44032</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B26" s="4">
-        <v>44042</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>